--- a/Code/Results/Cases/Case_0_115/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_115/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.010571090980673</v>
+        <v>1.038012492658291</v>
       </c>
       <c r="D2">
-        <v>1.024669902324505</v>
+        <v>1.046049527104035</v>
       </c>
       <c r="E2">
-        <v>1.024839156785409</v>
+        <v>1.046453301742122</v>
       </c>
       <c r="F2">
-        <v>1.033875357322533</v>
+        <v>1.056661513366447</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.053308246594199</v>
+        <v>1.038012640255427</v>
       </c>
       <c r="J2">
-        <v>1.03244015509113</v>
+        <v>1.043112241797363</v>
       </c>
       <c r="K2">
-        <v>1.035795920693115</v>
+        <v>1.048816052034104</v>
       </c>
       <c r="L2">
-        <v>1.035962957818206</v>
+        <v>1.049218695171206</v>
       </c>
       <c r="M2">
-        <v>1.044882096417225</v>
+        <v>1.059398611523202</v>
       </c>
       <c r="N2">
-        <v>1.014722036514382</v>
+        <v>1.018316225590214</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.014595523444381</v>
+        <v>1.038865825066547</v>
       </c>
       <c r="D3">
-        <v>1.027988372963368</v>
+        <v>1.046800092458259</v>
       </c>
       <c r="E3">
-        <v>1.028144064294333</v>
+        <v>1.047203905475387</v>
       </c>
       <c r="F3">
-        <v>1.037464042680891</v>
+        <v>1.057476800197066</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.054309168879396</v>
+        <v>1.038135541311707</v>
       </c>
       <c r="J3">
-        <v>1.034696056084416</v>
+        <v>1.043610673772147</v>
       </c>
       <c r="K3">
-        <v>1.038275236533008</v>
+        <v>1.049378340121172</v>
       </c>
       <c r="L3">
-        <v>1.038429068426473</v>
+        <v>1.049781103153058</v>
       </c>
       <c r="M3">
-        <v>1.04763899513921</v>
+        <v>1.060027577364837</v>
       </c>
       <c r="N3">
-        <v>1.015470366377828</v>
+        <v>1.018481233640325</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.017149464596387</v>
+        <v>1.039418332098627</v>
       </c>
       <c r="D4">
-        <v>1.030099246011079</v>
+        <v>1.047286369663836</v>
       </c>
       <c r="E4">
-        <v>1.030246887744646</v>
+        <v>1.047690270150612</v>
       </c>
       <c r="F4">
-        <v>1.039746605640619</v>
+        <v>1.058005005064573</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.054928995566415</v>
+        <v>1.038213205078084</v>
       </c>
       <c r="J4">
-        <v>1.036124430908282</v>
+        <v>1.043932875261951</v>
       </c>
       <c r="K4">
-        <v>1.039847480434364</v>
+        <v>1.049742123408819</v>
       </c>
       <c r="L4">
-        <v>1.039993466545613</v>
+        <v>1.050145026446113</v>
       </c>
       <c r="M4">
-        <v>1.049387870938201</v>
+        <v>1.06043456611207</v>
       </c>
       <c r="N4">
-        <v>1.015944176633249</v>
+        <v>1.01858788565255</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.01821150705784</v>
+        <v>1.039650686737884</v>
       </c>
       <c r="D5">
-        <v>1.030978191975529</v>
+        <v>1.047490945059368</v>
       </c>
       <c r="E5">
-        <v>1.031122619960694</v>
+        <v>1.047894897312929</v>
       </c>
       <c r="F5">
-        <v>1.040696997813312</v>
+        <v>1.05822721835735</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.055183007069866</v>
+        <v>1.038245408365186</v>
       </c>
       <c r="J5">
-        <v>1.036717603209312</v>
+        <v>1.044068251427904</v>
       </c>
       <c r="K5">
-        <v>1.040500979742614</v>
+        <v>1.049895043304334</v>
       </c>
       <c r="L5">
-        <v>1.040643831770968</v>
+        <v>1.050298020149936</v>
       </c>
       <c r="M5">
-        <v>1.050114931687306</v>
+        <v>1.060605663892511</v>
       </c>
       <c r="N5">
-        <v>1.016140935312037</v>
+        <v>1.018632693136734</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.018389156812915</v>
+        <v>1.039689704787554</v>
       </c>
       <c r="D6">
-        <v>1.031125281517717</v>
+        <v>1.047525302585013</v>
       </c>
       <c r="E6">
-        <v>1.0312691797844</v>
+        <v>1.047929264409716</v>
       </c>
       <c r="F6">
-        <v>1.040856041216946</v>
+        <v>1.058264538035137</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.055225274653821</v>
+        <v>1.038250789225171</v>
       </c>
       <c r="J6">
-        <v>1.036816775697736</v>
+        <v>1.044090977106602</v>
       </c>
       <c r="K6">
-        <v>1.04061027258967</v>
+        <v>1.04992071832782</v>
       </c>
       <c r="L6">
-        <v>1.040752607940426</v>
+        <v>1.050323708442992</v>
       </c>
       <c r="M6">
-        <v>1.050236535643226</v>
+        <v>1.06063439189696</v>
       </c>
       <c r="N6">
-        <v>1.016173831113737</v>
+        <v>1.018640214794713</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.017163700898593</v>
+        <v>1.039421436517732</v>
       </c>
       <c r="D7">
-        <v>1.030111023469084</v>
+        <v>1.047289102645025</v>
       </c>
       <c r="E7">
-        <v>1.030258621595922</v>
+        <v>1.047693003764594</v>
       </c>
       <c r="F7">
-        <v>1.03975934061297</v>
+        <v>1.05800797367913</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.054932415340817</v>
+        <v>1.038213637135834</v>
       </c>
       <c r="J7">
-        <v>1.036132385411622</v>
+        <v>1.043934684470533</v>
       </c>
       <c r="K7">
-        <v>1.039856241627141</v>
+        <v>1.049744166791206</v>
       </c>
       <c r="L7">
-        <v>1.040002185219</v>
+        <v>1.050147070755981</v>
       </c>
       <c r="M7">
-        <v>1.049397617766595</v>
+        <v>1.060436852332237</v>
       </c>
       <c r="N7">
-        <v>1.015946815206287</v>
+        <v>1.018588484486986</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.011941774743295</v>
+        <v>1.038300808143358</v>
       </c>
       <c r="D8">
-        <v>1.025799085114776</v>
+        <v>1.046303056496175</v>
       </c>
       <c r="E8">
-        <v>1.025963603123738</v>
+        <v>1.046706831135089</v>
       </c>
       <c r="F8">
-        <v>1.035096528657599</v>
+        <v>1.056936905566863</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.053652339006522</v>
+        <v>1.038054560108408</v>
       </c>
       <c r="J8">
-        <v>1.033209152881418</v>
+        <v>1.043280754098379</v>
       </c>
       <c r="K8">
-        <v>1.0366405732098</v>
+        <v>1.049006090350796</v>
       </c>
       <c r="L8">
-        <v>1.036803000977054</v>
+        <v>1.049408761084429</v>
       </c>
       <c r="M8">
-        <v>1.045821188960113</v>
+        <v>1.059611171269992</v>
       </c>
       <c r="N8">
-        <v>1.01497713090509</v>
+        <v>1.018372015233897</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.002338689248384</v>
+        <v>1.036328824309272</v>
       </c>
       <c r="D9">
-        <v>1.017910384518546</v>
+        <v>1.044570280998535</v>
       </c>
       <c r="E9">
-        <v>1.018110458255854</v>
+        <v>1.044974312513483</v>
       </c>
       <c r="F9">
-        <v>1.026564253440238</v>
+        <v>1.055054687203111</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.0511786951783</v>
+        <v>1.037760030461669</v>
       </c>
       <c r="J9">
-        <v>1.027809131810488</v>
+        <v>1.042126075265809</v>
       </c>
       <c r="K9">
-        <v>1.030719411102242</v>
+        <v>1.047705152557897</v>
       </c>
       <c r="L9">
-        <v>1.03091638387021</v>
+        <v>1.048107890188721</v>
       </c>
       <c r="M9">
-        <v>1.039240560274204</v>
+        <v>1.058156333856942</v>
       </c>
       <c r="N9">
-        <v>1.013185824967566</v>
+        <v>1.01798967662952</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9956410534590432</v>
+        <v>1.035016085327877</v>
       </c>
       <c r="D10">
-        <v>1.012438639342795</v>
+        <v>1.043418411103697</v>
       </c>
       <c r="E10">
-        <v>1.012666539523554</v>
+        <v>1.043822936505795</v>
       </c>
       <c r="F10">
-        <v>1.020644819501367</v>
+        <v>1.053803448613586</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.049375920299967</v>
+        <v>1.037554174104555</v>
       </c>
       <c r="J10">
-        <v>1.024028688656605</v>
+        <v>1.04135477690378</v>
       </c>
       <c r="K10">
-        <v>1.026586884309731</v>
+        <v>1.046837712284956</v>
       </c>
       <c r="L10">
-        <v>1.026810800766905</v>
+        <v>1.047240815536005</v>
       </c>
       <c r="M10">
-        <v>1.034651068376681</v>
+        <v>1.057186620684846</v>
       </c>
       <c r="N10">
-        <v>1.011931838009152</v>
+        <v>1.017734212636666</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9926646350263773</v>
+        <v>1.034448129778071</v>
       </c>
       <c r="D11">
-        <v>1.010014761004013</v>
+        <v>1.042920447991769</v>
       </c>
       <c r="E11">
-        <v>1.010255752272978</v>
+        <v>1.043325263804723</v>
       </c>
       <c r="F11">
-        <v>1.018022276278729</v>
+        <v>1.053262520778113</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.048557132150005</v>
+        <v>1.037462793322317</v>
       </c>
       <c r="J11">
-        <v>1.022345790100667</v>
+        <v>1.041020454397112</v>
       </c>
       <c r="K11">
-        <v>1.024750253024522</v>
+        <v>1.046462084475989</v>
       </c>
       <c r="L11">
-        <v>1.024986817572579</v>
+        <v>1.046865422136699</v>
       </c>
       <c r="M11">
-        <v>1.032612138181485</v>
+        <v>1.05676678725681</v>
       </c>
       <c r="N11">
-        <v>1.011373650748347</v>
+        <v>1.017623464244392</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9915470357898801</v>
+        <v>1.034237237880507</v>
       </c>
       <c r="D12">
-        <v>1.009105850360191</v>
+        <v>1.042735605009627</v>
       </c>
       <c r="E12">
-        <v>1.009351866724136</v>
+        <v>1.043140540199601</v>
       </c>
       <c r="F12">
-        <v>1.017038814197498</v>
+        <v>1.053061728295397</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.048247105202773</v>
+        <v>1.037428514231593</v>
       </c>
       <c r="J12">
-        <v>1.021713499231522</v>
+        <v>1.040896221613709</v>
       </c>
       <c r="K12">
-        <v>1.024060651520057</v>
+        <v>1.046322557997943</v>
       </c>
       <c r="L12">
-        <v>1.024302066445047</v>
+        <v>1.046725994158627</v>
       </c>
       <c r="M12">
-        <v>1.031846699328958</v>
+        <v>1.056610852919235</v>
       </c>
       <c r="N12">
-        <v>1.011163938385202</v>
+        <v>1.017582308180511</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9917873181830362</v>
+        <v>1.0342824716208</v>
       </c>
       <c r="D13">
-        <v>1.009301209046408</v>
+        <v>1.042775248874773</v>
       </c>
       <c r="E13">
-        <v>1.009546140057944</v>
+        <v>1.043180157937257</v>
       </c>
       <c r="F13">
-        <v>1.017250199333155</v>
+        <v>1.053104792950422</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.048313876320913</v>
+        <v>1.037435882412584</v>
       </c>
       <c r="J13">
-        <v>1.021849457785538</v>
+        <v>1.040922872231956</v>
       </c>
       <c r="K13">
-        <v>1.02420891304354</v>
+        <v>1.046352486949019</v>
       </c>
       <c r="L13">
-        <v>1.024449280571527</v>
+        <v>1.04675590146394</v>
       </c>
       <c r="M13">
-        <v>1.032011260132904</v>
+        <v>1.056644300862648</v>
       </c>
       <c r="N13">
-        <v>1.011209031503886</v>
+        <v>1.017591137156309</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9925725026025242</v>
+        <v>1.034430695908301</v>
       </c>
       <c r="D14">
-        <v>1.009939807324898</v>
+        <v>1.042905166299558</v>
       </c>
       <c r="E14">
-        <v>1.010181210619433</v>
+        <v>1.043309991745522</v>
       </c>
       <c r="F14">
-        <v>1.017941175838794</v>
+        <v>1.053245920500562</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.048531626376644</v>
+        <v>1.037459966655284</v>
       </c>
       <c r="J14">
-        <v>1.02229367307132</v>
+        <v>1.041010186299271</v>
       </c>
       <c r="K14">
-        <v>1.024693403003974</v>
+        <v>1.04645055119754</v>
       </c>
       <c r="L14">
-        <v>1.024930365349109</v>
+        <v>1.046853896767139</v>
       </c>
       <c r="M14">
-        <v>1.032549033763417</v>
+        <v>1.056753897452233</v>
       </c>
       <c r="N14">
-        <v>1.011356364900326</v>
+        <v>1.01762006265986</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9930546698205034</v>
+        <v>1.034522031383404</v>
       </c>
       <c r="D15">
-        <v>1.010332121039407</v>
+        <v>1.042985229026286</v>
       </c>
       <c r="E15">
-        <v>1.010571372505918</v>
+        <v>1.043390004478063</v>
       </c>
       <c r="F15">
-        <v>1.018365659911356</v>
+        <v>1.053332891419035</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.048665003679435</v>
+        <v>1.037474761228616</v>
       </c>
       <c r="J15">
-        <v>1.022566407545704</v>
+        <v>1.04106397672388</v>
       </c>
       <c r="K15">
-        <v>1.024990924071132</v>
+        <v>1.046510971651947</v>
       </c>
       <c r="L15">
-        <v>1.025225808705546</v>
+        <v>1.046914276256542</v>
       </c>
       <c r="M15">
-        <v>1.032879291733119</v>
+        <v>1.056821424967906</v>
       </c>
       <c r="N15">
-        <v>1.011446824055597</v>
+        <v>1.017637882089791</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9958369338564517</v>
+        <v>1.035053788687564</v>
       </c>
       <c r="D16">
-        <v>1.012598322806743</v>
+        <v>1.043451476378166</v>
       </c>
       <c r="E16">
-        <v>1.012825376626126</v>
+        <v>1.043855984119913</v>
       </c>
       <c r="F16">
-        <v>1.020817583326557</v>
+        <v>1.053839366643009</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.049429443076211</v>
+        <v>1.037560191550758</v>
       </c>
       <c r="J16">
-        <v>1.024139385199421</v>
+        <v>1.041376957629101</v>
       </c>
       <c r="K16">
-        <v>1.026707755357958</v>
+        <v>1.046862641161785</v>
       </c>
       <c r="L16">
-        <v>1.026930853486928</v>
+        <v>1.047265730458836</v>
       </c>
       <c r="M16">
-        <v>1.034785269566313</v>
+        <v>1.057214485026953</v>
       </c>
       <c r="N16">
-        <v>1.011968554968808</v>
+        <v>1.017741559927203</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9975613615088762</v>
+        <v>1.035387472719255</v>
       </c>
       <c r="D17">
-        <v>1.014004981839934</v>
+        <v>1.043744157643849</v>
       </c>
       <c r="E17">
-        <v>1.014224667436544</v>
+        <v>1.044148517956821</v>
       </c>
       <c r="F17">
-        <v>1.022339427797751</v>
+        <v>1.054157298620831</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.049898627303974</v>
+        <v>1.037613179675932</v>
       </c>
       <c r="J17">
-        <v>1.025113576634055</v>
+        <v>1.041573190808064</v>
       </c>
       <c r="K17">
-        <v>1.027771829511306</v>
+        <v>1.047083229731447</v>
       </c>
       <c r="L17">
-        <v>1.027987800339561</v>
+        <v>1.047486204342475</v>
       </c>
       <c r="M17">
-        <v>1.035966784365713</v>
+        <v>1.057461058127077</v>
       </c>
       <c r="N17">
-        <v>1.012291689084538</v>
+        <v>1.017806559610258</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9985598690929304</v>
+        <v>1.03558215012243</v>
       </c>
       <c r="D18">
-        <v>1.014820222854722</v>
+        <v>1.04391495113816</v>
       </c>
       <c r="E18">
-        <v>1.015035710812556</v>
+        <v>1.044319232844543</v>
       </c>
       <c r="F18">
-        <v>1.023221392671928</v>
+        <v>1.05434282645877</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.050168622354113</v>
+        <v>1.037643870217261</v>
       </c>
       <c r="J18">
-        <v>1.025677393458297</v>
+        <v>1.041687616901928</v>
       </c>
       <c r="K18">
-        <v>1.028387951156879</v>
+        <v>1.047211893239842</v>
       </c>
       <c r="L18">
-        <v>1.0285998590843</v>
+        <v>1.047614808298551</v>
       </c>
       <c r="M18">
-        <v>1.036650981761907</v>
+        <v>1.057604885604553</v>
       </c>
       <c r="N18">
-        <v>1.012478707467732</v>
+        <v>1.017844460174123</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9988991089548924</v>
+        <v>1.035648537695832</v>
       </c>
       <c r="D19">
-        <v>1.015097321302509</v>
+        <v>1.043973200388109</v>
       </c>
       <c r="E19">
-        <v>1.015311394783198</v>
+        <v>1.044377456544369</v>
       </c>
       <c r="F19">
-        <v>1.023521164933684</v>
+        <v>1.05440610075867</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.050260065438865</v>
+        <v>1.037654298143723</v>
       </c>
       <c r="J19">
-        <v>1.025868900358087</v>
+        <v>1.041726627536709</v>
       </c>
       <c r="K19">
-        <v>1.028597272369904</v>
+        <v>1.047255763774444</v>
       </c>
       <c r="L19">
-        <v>1.028807810810904</v>
+        <v>1.047658659772773</v>
       </c>
       <c r="M19">
-        <v>1.036883443746132</v>
+        <v>1.057653927949985</v>
       </c>
       <c r="N19">
-        <v>1.012542230939202</v>
+        <v>1.017857381126686</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9973771080301511</v>
+        <v>1.035351666898604</v>
       </c>
       <c r="D20">
-        <v>1.013854605213031</v>
+        <v>1.043712747687955</v>
       </c>
       <c r="E20">
-        <v>1.014075070952764</v>
+        <v>1.04411712305463</v>
       </c>
       <c r="F20">
-        <v>1.022176740884862</v>
+        <v>1.054123178877947</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.049848669212092</v>
+        <v>1.037607516942499</v>
       </c>
       <c r="J20">
-        <v>1.025009513530908</v>
+        <v>1.041552140290004</v>
       </c>
       <c r="K20">
-        <v>1.027658135596856</v>
+        <v>1.047059562869139</v>
       </c>
       <c r="L20">
-        <v>1.027874861325497</v>
+        <v>1.047462549025483</v>
       </c>
       <c r="M20">
-        <v>1.035840534385847</v>
+        <v>1.057434602579888</v>
       </c>
       <c r="N20">
-        <v>1.012257171548056</v>
+        <v>1.01779958706462</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9923416219973841</v>
+        <v>1.034387045547323</v>
       </c>
       <c r="D21">
-        <v>1.009751995862682</v>
+        <v>1.042866905454212</v>
       </c>
       <c r="E21">
-        <v>1.009994433446924</v>
+        <v>1.043271755205517</v>
       </c>
       <c r="F21">
-        <v>1.017737961525998</v>
+        <v>1.053204358289283</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.048467668389076</v>
+        <v>1.037452883719806</v>
       </c>
       <c r="J21">
-        <v>1.022163063526862</v>
+        <v>1.040984475866456</v>
       </c>
       <c r="K21">
-        <v>1.024550939426019</v>
+        <v>1.046421673752373</v>
       </c>
       <c r="L21">
-        <v>1.024788900267098</v>
+        <v>1.046825039309152</v>
       </c>
       <c r="M21">
-        <v>1.032390898885824</v>
+        <v>1.056721623685321</v>
       </c>
       <c r="N21">
-        <v>1.011313045270728</v>
+        <v>1.017611545345699</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9891057353676835</v>
+        <v>1.033780967655301</v>
       </c>
       <c r="D22">
-        <v>1.007122712274529</v>
+        <v>1.04233580163724</v>
       </c>
       <c r="E22">
-        <v>1.007379907750465</v>
+        <v>1.04274101622227</v>
       </c>
       <c r="F22">
-        <v>1.014892907259872</v>
+        <v>1.052627425164462</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.047565200570143</v>
+        <v>1.037353714960701</v>
       </c>
       <c r="J22">
-        <v>1.020331649216399</v>
+        <v>1.040627271090938</v>
       </c>
       <c r="K22">
-        <v>1.022554375196223</v>
+        <v>1.046020599109267</v>
       </c>
       <c r="L22">
-        <v>1.022806571304001</v>
+        <v>1.046424269338211</v>
       </c>
       <c r="M22">
-        <v>1.030174995600901</v>
+        <v>1.056273407070078</v>
       </c>
       <c r="N22">
-        <v>1.010705634294602</v>
+        <v>1.017493205316469</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9908279605558433</v>
+        <v>1.03410222087124</v>
       </c>
       <c r="D23">
-        <v>1.008521397692864</v>
+        <v>1.042617281822636</v>
       </c>
       <c r="E23">
-        <v>1.008770678223646</v>
+        <v>1.043022296691047</v>
       </c>
       <c r="F23">
-        <v>1.016406406925139</v>
+        <v>1.052933195075597</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.048046910622106</v>
+        <v>1.037406470240368</v>
       </c>
       <c r="J23">
-        <v>1.021306572711469</v>
+        <v>1.040816659294575</v>
       </c>
       <c r="K23">
-        <v>1.02361696768182</v>
+        <v>1.046233216670754</v>
       </c>
       <c r="L23">
-        <v>1.023861531898954</v>
+        <v>1.046636719119844</v>
       </c>
       <c r="M23">
-        <v>1.031354256335518</v>
+        <v>1.056511008794557</v>
       </c>
       <c r="N23">
-        <v>1.011028975012826</v>
+        <v>1.017555949944831</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9974603868322988</v>
+        <v>1.035367845868368</v>
       </c>
       <c r="D24">
-        <v>1.013922570102415</v>
+        <v>1.043726940255872</v>
       </c>
       <c r="E24">
-        <v>1.014142683020092</v>
+        <v>1.044131308797606</v>
       </c>
       <c r="F24">
-        <v>1.022250269687321</v>
+        <v>1.054138595863341</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.049871254460082</v>
+        <v>1.037610076357137</v>
       </c>
       <c r="J24">
-        <v>1.025056548783508</v>
+        <v>1.041561652216357</v>
       </c>
       <c r="K24">
-        <v>1.027709522975259</v>
+        <v>1.047070256912062</v>
       </c>
       <c r="L24">
-        <v>1.027925907305756</v>
+        <v>1.047473237828889</v>
       </c>
       <c r="M24">
-        <v>1.035897596622272</v>
+        <v>1.05744655668591</v>
       </c>
       <c r="N24">
-        <v>1.012272773043048</v>
+        <v>1.017802737697009</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.00487143832743</v>
+        <v>1.03683829863701</v>
       </c>
       <c r="D25">
-        <v>1.019985951123638</v>
+        <v>1.04501766901809</v>
       </c>
       <c r="E25">
-        <v>1.020176126605655</v>
+        <v>1.04542157726353</v>
       </c>
       <c r="F25">
-        <v>1.028809359389043</v>
+        <v>1.055540664463545</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.051844729484372</v>
+        <v>1.037837852421024</v>
       </c>
       <c r="J25">
-        <v>1.029235964011695</v>
+        <v>1.042424859914474</v>
       </c>
       <c r="K25">
-        <v>1.03228173558018</v>
+        <v>1.048041508800775</v>
       </c>
       <c r="L25">
-        <v>1.032469104665671</v>
+        <v>1.048444172534656</v>
       </c>
       <c r="M25">
-        <v>1.040976322573353</v>
+        <v>1.058532419978219</v>
       </c>
       <c r="N25">
-        <v>1.013659131169737</v>
+        <v>1.018088623129696</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_115/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_115/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.038012492658291</v>
+        <v>1.010571090980673</v>
       </c>
       <c r="D2">
-        <v>1.046049527104035</v>
+        <v>1.024669902324505</v>
       </c>
       <c r="E2">
-        <v>1.046453301742122</v>
+        <v>1.024839156785409</v>
       </c>
       <c r="F2">
-        <v>1.056661513366447</v>
+        <v>1.033875357322533</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.038012640255427</v>
+        <v>1.053308246594199</v>
       </c>
       <c r="J2">
-        <v>1.043112241797363</v>
+        <v>1.03244015509113</v>
       </c>
       <c r="K2">
-        <v>1.048816052034104</v>
+        <v>1.035795920693115</v>
       </c>
       <c r="L2">
-        <v>1.049218695171206</v>
+        <v>1.035962957818206</v>
       </c>
       <c r="M2">
-        <v>1.059398611523202</v>
+        <v>1.044882096417225</v>
       </c>
       <c r="N2">
-        <v>1.018316225590214</v>
+        <v>1.014722036514382</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.038865825066547</v>
+        <v>1.014595523444381</v>
       </c>
       <c r="D3">
-        <v>1.046800092458259</v>
+        <v>1.027988372963369</v>
       </c>
       <c r="E3">
-        <v>1.047203905475387</v>
+        <v>1.028144064294333</v>
       </c>
       <c r="F3">
-        <v>1.057476800197066</v>
+        <v>1.037464042680891</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.038135541311707</v>
+        <v>1.054309168879396</v>
       </c>
       <c r="J3">
-        <v>1.043610673772147</v>
+        <v>1.034696056084416</v>
       </c>
       <c r="K3">
-        <v>1.049378340121172</v>
+        <v>1.038275236533008</v>
       </c>
       <c r="L3">
-        <v>1.049781103153058</v>
+        <v>1.038429068426473</v>
       </c>
       <c r="M3">
-        <v>1.060027577364837</v>
+        <v>1.04763899513921</v>
       </c>
       <c r="N3">
-        <v>1.018481233640325</v>
+        <v>1.015470366377828</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.039418332098627</v>
+        <v>1.017149464596387</v>
       </c>
       <c r="D4">
-        <v>1.047286369663836</v>
+        <v>1.030099246011078</v>
       </c>
       <c r="E4">
-        <v>1.047690270150612</v>
+        <v>1.030246887744646</v>
       </c>
       <c r="F4">
-        <v>1.058005005064573</v>
+        <v>1.039746605640619</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.038213205078084</v>
+        <v>1.054928995566415</v>
       </c>
       <c r="J4">
-        <v>1.043932875261951</v>
+        <v>1.036124430908282</v>
       </c>
       <c r="K4">
-        <v>1.049742123408819</v>
+        <v>1.039847480434364</v>
       </c>
       <c r="L4">
-        <v>1.050145026446113</v>
+        <v>1.039993466545613</v>
       </c>
       <c r="M4">
-        <v>1.06043456611207</v>
+        <v>1.049387870938201</v>
       </c>
       <c r="N4">
-        <v>1.01858788565255</v>
+        <v>1.015944176633248</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.039650686737884</v>
+        <v>1.01821150705784</v>
       </c>
       <c r="D5">
-        <v>1.047490945059368</v>
+        <v>1.030978191975529</v>
       </c>
       <c r="E5">
-        <v>1.047894897312929</v>
+        <v>1.031122619960694</v>
       </c>
       <c r="F5">
-        <v>1.05822721835735</v>
+        <v>1.040696997813312</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.038245408365186</v>
+        <v>1.055183007069866</v>
       </c>
       <c r="J5">
-        <v>1.044068251427904</v>
+        <v>1.036717603209312</v>
       </c>
       <c r="K5">
-        <v>1.049895043304334</v>
+        <v>1.040500979742614</v>
       </c>
       <c r="L5">
-        <v>1.050298020149936</v>
+        <v>1.040643831770968</v>
       </c>
       <c r="M5">
-        <v>1.060605663892511</v>
+        <v>1.050114931687306</v>
       </c>
       <c r="N5">
-        <v>1.018632693136734</v>
+        <v>1.016140935312038</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.039689704787554</v>
+        <v>1.018389156812915</v>
       </c>
       <c r="D6">
-        <v>1.047525302585013</v>
+        <v>1.031125281517717</v>
       </c>
       <c r="E6">
-        <v>1.047929264409716</v>
+        <v>1.0312691797844</v>
       </c>
       <c r="F6">
-        <v>1.058264538035137</v>
+        <v>1.040856041216945</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.038250789225171</v>
+        <v>1.055225274653821</v>
       </c>
       <c r="J6">
-        <v>1.044090977106602</v>
+        <v>1.036816775697735</v>
       </c>
       <c r="K6">
-        <v>1.04992071832782</v>
+        <v>1.04061027258967</v>
       </c>
       <c r="L6">
-        <v>1.050323708442992</v>
+        <v>1.040752607940426</v>
       </c>
       <c r="M6">
-        <v>1.06063439189696</v>
+        <v>1.050236535643226</v>
       </c>
       <c r="N6">
-        <v>1.018640214794713</v>
+        <v>1.016173831113737</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.039421436517732</v>
+        <v>1.017163700898594</v>
       </c>
       <c r="D7">
-        <v>1.047289102645025</v>
+        <v>1.030111023469085</v>
       </c>
       <c r="E7">
-        <v>1.047693003764594</v>
+        <v>1.030258621595923</v>
       </c>
       <c r="F7">
-        <v>1.05800797367913</v>
+        <v>1.039759340612971</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.038213637135834</v>
+        <v>1.054932415340817</v>
       </c>
       <c r="J7">
-        <v>1.043934684470533</v>
+        <v>1.036132385411623</v>
       </c>
       <c r="K7">
-        <v>1.049744166791206</v>
+        <v>1.039856241627142</v>
       </c>
       <c r="L7">
-        <v>1.050147070755981</v>
+        <v>1.040002185219002</v>
       </c>
       <c r="M7">
-        <v>1.060436852332237</v>
+        <v>1.049397617766596</v>
       </c>
       <c r="N7">
-        <v>1.018588484486986</v>
+        <v>1.015946815206288</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.038300808143358</v>
+        <v>1.011941774743295</v>
       </c>
       <c r="D8">
-        <v>1.046303056496175</v>
+        <v>1.025799085114776</v>
       </c>
       <c r="E8">
-        <v>1.046706831135089</v>
+        <v>1.025963603123738</v>
       </c>
       <c r="F8">
-        <v>1.056936905566863</v>
+        <v>1.035096528657599</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.038054560108408</v>
+        <v>1.053652339006522</v>
       </c>
       <c r="J8">
-        <v>1.043280754098379</v>
+        <v>1.033209152881417</v>
       </c>
       <c r="K8">
-        <v>1.049006090350796</v>
+        <v>1.0366405732098</v>
       </c>
       <c r="L8">
-        <v>1.049408761084429</v>
+        <v>1.036803000977053</v>
       </c>
       <c r="M8">
-        <v>1.059611171269992</v>
+        <v>1.045821188960113</v>
       </c>
       <c r="N8">
-        <v>1.018372015233897</v>
+        <v>1.014977130905089</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.036328824309272</v>
+        <v>1.002338689248385</v>
       </c>
       <c r="D9">
-        <v>1.044570280998535</v>
+        <v>1.017910384518547</v>
       </c>
       <c r="E9">
-        <v>1.044974312513483</v>
+        <v>1.018110458255854</v>
       </c>
       <c r="F9">
-        <v>1.055054687203111</v>
+        <v>1.026564253440238</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.037760030461669</v>
+        <v>1.0511786951783</v>
       </c>
       <c r="J9">
-        <v>1.042126075265809</v>
+        <v>1.027809131810488</v>
       </c>
       <c r="K9">
-        <v>1.047705152557897</v>
+        <v>1.030719411102243</v>
       </c>
       <c r="L9">
-        <v>1.048107890188721</v>
+        <v>1.03091638387021</v>
       </c>
       <c r="M9">
-        <v>1.058156333856942</v>
+        <v>1.039240560274205</v>
       </c>
       <c r="N9">
-        <v>1.01798967662952</v>
+        <v>1.013185824967567</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.035016085327877</v>
+        <v>0.9956410534590426</v>
       </c>
       <c r="D10">
-        <v>1.043418411103697</v>
+        <v>1.012438639342795</v>
       </c>
       <c r="E10">
-        <v>1.043822936505795</v>
+        <v>1.012666539523553</v>
       </c>
       <c r="F10">
-        <v>1.053803448613586</v>
+        <v>1.020644819501366</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.037554174104555</v>
+        <v>1.049375920299967</v>
       </c>
       <c r="J10">
-        <v>1.04135477690378</v>
+        <v>1.024028688656605</v>
       </c>
       <c r="K10">
-        <v>1.046837712284956</v>
+        <v>1.02658688430973</v>
       </c>
       <c r="L10">
-        <v>1.047240815536005</v>
+        <v>1.026810800766905</v>
       </c>
       <c r="M10">
-        <v>1.057186620684846</v>
+        <v>1.034651068376681</v>
       </c>
       <c r="N10">
-        <v>1.017734212636666</v>
+        <v>1.011931838009152</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.034448129778071</v>
+        <v>0.9926646350263784</v>
       </c>
       <c r="D11">
-        <v>1.042920447991769</v>
+        <v>1.010014761004014</v>
       </c>
       <c r="E11">
-        <v>1.043325263804723</v>
+        <v>1.010255752272979</v>
       </c>
       <c r="F11">
-        <v>1.053262520778113</v>
+        <v>1.01802227627873</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.037462793322317</v>
+        <v>1.048557132150006</v>
       </c>
       <c r="J11">
-        <v>1.041020454397112</v>
+        <v>1.022345790100667</v>
       </c>
       <c r="K11">
-        <v>1.046462084475989</v>
+        <v>1.024750253024523</v>
       </c>
       <c r="L11">
-        <v>1.046865422136699</v>
+        <v>1.02498681757258</v>
       </c>
       <c r="M11">
-        <v>1.05676678725681</v>
+        <v>1.032612138181486</v>
       </c>
       <c r="N11">
-        <v>1.017623464244392</v>
+        <v>1.011373650748348</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.034237237880507</v>
+        <v>0.9915470357898795</v>
       </c>
       <c r="D12">
-        <v>1.042735605009627</v>
+        <v>1.009105850360191</v>
       </c>
       <c r="E12">
-        <v>1.043140540199601</v>
+        <v>1.009351866724135</v>
       </c>
       <c r="F12">
-        <v>1.053061728295397</v>
+        <v>1.017038814197497</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.037428514231593</v>
+        <v>1.048247105202773</v>
       </c>
       <c r="J12">
-        <v>1.040896221613709</v>
+        <v>1.021713499231522</v>
       </c>
       <c r="K12">
-        <v>1.046322557997943</v>
+        <v>1.024060651520057</v>
       </c>
       <c r="L12">
-        <v>1.046725994158627</v>
+        <v>1.024302066445046</v>
       </c>
       <c r="M12">
-        <v>1.056610852919235</v>
+        <v>1.031846699328957</v>
       </c>
       <c r="N12">
-        <v>1.017582308180511</v>
+        <v>1.011163938385202</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.0342824716208</v>
+        <v>0.991787318183037</v>
       </c>
       <c r="D13">
-        <v>1.042775248874773</v>
+        <v>1.009301209046409</v>
       </c>
       <c r="E13">
-        <v>1.043180157937257</v>
+        <v>1.009546140057946</v>
       </c>
       <c r="F13">
-        <v>1.053104792950422</v>
+        <v>1.017250199333155</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.037435882412584</v>
+        <v>1.048313876320913</v>
       </c>
       <c r="J13">
-        <v>1.040922872231956</v>
+        <v>1.021849457785539</v>
       </c>
       <c r="K13">
-        <v>1.046352486949019</v>
+        <v>1.024208913043541</v>
       </c>
       <c r="L13">
-        <v>1.04675590146394</v>
+        <v>1.024449280571528</v>
       </c>
       <c r="M13">
-        <v>1.056644300862648</v>
+        <v>1.032011260132905</v>
       </c>
       <c r="N13">
-        <v>1.017591137156309</v>
+        <v>1.011209031503886</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.034430695908301</v>
+        <v>0.9925725026025253</v>
       </c>
       <c r="D14">
-        <v>1.042905166299558</v>
+        <v>1.009939807324899</v>
       </c>
       <c r="E14">
-        <v>1.043309991745522</v>
+        <v>1.010181210619433</v>
       </c>
       <c r="F14">
-        <v>1.053245920500562</v>
+        <v>1.017941175838794</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.037459966655284</v>
+        <v>1.048531626376644</v>
       </c>
       <c r="J14">
-        <v>1.041010186299271</v>
+        <v>1.022293673071321</v>
       </c>
       <c r="K14">
-        <v>1.04645055119754</v>
+        <v>1.024693403003975</v>
       </c>
       <c r="L14">
-        <v>1.046853896767139</v>
+        <v>1.02493036534911</v>
       </c>
       <c r="M14">
-        <v>1.056753897452233</v>
+        <v>1.032549033763417</v>
       </c>
       <c r="N14">
-        <v>1.01762006265986</v>
+        <v>1.011356364900326</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.034522031383404</v>
+        <v>0.9930546698205045</v>
       </c>
       <c r="D15">
-        <v>1.042985229026286</v>
+        <v>1.010332121039408</v>
       </c>
       <c r="E15">
-        <v>1.043390004478063</v>
+        <v>1.010571372505918</v>
       </c>
       <c r="F15">
-        <v>1.053332891419035</v>
+        <v>1.018365659911356</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.037474761228616</v>
+        <v>1.048665003679435</v>
       </c>
       <c r="J15">
-        <v>1.04106397672388</v>
+        <v>1.022566407545705</v>
       </c>
       <c r="K15">
-        <v>1.046510971651947</v>
+        <v>1.024990924071134</v>
       </c>
       <c r="L15">
-        <v>1.046914276256542</v>
+        <v>1.025225808705547</v>
       </c>
       <c r="M15">
-        <v>1.056821424967906</v>
+        <v>1.03287929173312</v>
       </c>
       <c r="N15">
-        <v>1.017637882089791</v>
+        <v>1.011446824055597</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.035053788687564</v>
+        <v>0.9958369338564516</v>
       </c>
       <c r="D16">
-        <v>1.043451476378166</v>
+        <v>1.012598322806742</v>
       </c>
       <c r="E16">
-        <v>1.043855984119913</v>
+        <v>1.012825376626125</v>
       </c>
       <c r="F16">
-        <v>1.053839366643009</v>
+        <v>1.020817583326557</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.037560191550758</v>
+        <v>1.049429443076211</v>
       </c>
       <c r="J16">
-        <v>1.041376957629101</v>
+        <v>1.024139385199421</v>
       </c>
       <c r="K16">
-        <v>1.046862641161785</v>
+        <v>1.026707755357958</v>
       </c>
       <c r="L16">
-        <v>1.047265730458836</v>
+        <v>1.026930853486928</v>
       </c>
       <c r="M16">
-        <v>1.057214485026953</v>
+        <v>1.034785269566313</v>
       </c>
       <c r="N16">
-        <v>1.017741559927203</v>
+        <v>1.011968554968807</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.035387472719255</v>
+        <v>0.9975613615088766</v>
       </c>
       <c r="D17">
-        <v>1.043744157643849</v>
+        <v>1.014004981839935</v>
       </c>
       <c r="E17">
-        <v>1.044148517956821</v>
+        <v>1.014224667436545</v>
       </c>
       <c r="F17">
-        <v>1.054157298620831</v>
+        <v>1.022339427797752</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.037613179675932</v>
+        <v>1.049898627303974</v>
       </c>
       <c r="J17">
-        <v>1.041573190808064</v>
+        <v>1.025113576634056</v>
       </c>
       <c r="K17">
-        <v>1.047083229731447</v>
+        <v>1.027771829511306</v>
       </c>
       <c r="L17">
-        <v>1.047486204342475</v>
+        <v>1.027987800339561</v>
       </c>
       <c r="M17">
-        <v>1.057461058127077</v>
+        <v>1.035966784365714</v>
       </c>
       <c r="N17">
-        <v>1.017806559610258</v>
+        <v>1.012291689084538</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.03558215012243</v>
+        <v>0.9985598690929309</v>
       </c>
       <c r="D18">
-        <v>1.04391495113816</v>
+        <v>1.014820222854723</v>
       </c>
       <c r="E18">
-        <v>1.044319232844543</v>
+        <v>1.015035710812556</v>
       </c>
       <c r="F18">
-        <v>1.05434282645877</v>
+        <v>1.023221392671929</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.037643870217261</v>
+        <v>1.050168622354113</v>
       </c>
       <c r="J18">
-        <v>1.041687616901928</v>
+        <v>1.025677393458297</v>
       </c>
       <c r="K18">
-        <v>1.047211893239842</v>
+        <v>1.02838795115688</v>
       </c>
       <c r="L18">
-        <v>1.047614808298551</v>
+        <v>1.028599859084301</v>
       </c>
       <c r="M18">
-        <v>1.057604885604553</v>
+        <v>1.036650981761907</v>
       </c>
       <c r="N18">
-        <v>1.017844460174123</v>
+        <v>1.012478707467733</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.035648537695832</v>
+        <v>0.9988991089548915</v>
       </c>
       <c r="D19">
-        <v>1.043973200388109</v>
+        <v>1.015097321302509</v>
       </c>
       <c r="E19">
-        <v>1.044377456544369</v>
+        <v>1.015311394783198</v>
       </c>
       <c r="F19">
-        <v>1.05440610075867</v>
+        <v>1.023521164933684</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.037654298143723</v>
+        <v>1.050260065438864</v>
       </c>
       <c r="J19">
-        <v>1.041726627536709</v>
+        <v>1.025868900358087</v>
       </c>
       <c r="K19">
-        <v>1.047255763774444</v>
+        <v>1.028597272369903</v>
       </c>
       <c r="L19">
-        <v>1.047658659772773</v>
+        <v>1.028807810810903</v>
       </c>
       <c r="M19">
-        <v>1.057653927949985</v>
+        <v>1.036883443746131</v>
       </c>
       <c r="N19">
-        <v>1.017857381126686</v>
+        <v>1.012542230939202</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.035351666898604</v>
+        <v>0.9973771080301514</v>
       </c>
       <c r="D20">
-        <v>1.043712747687955</v>
+        <v>1.013854605213032</v>
       </c>
       <c r="E20">
-        <v>1.04411712305463</v>
+        <v>1.014075070952765</v>
       </c>
       <c r="F20">
-        <v>1.054123178877947</v>
+        <v>1.022176740884862</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.037607516942499</v>
+        <v>1.049848669212093</v>
       </c>
       <c r="J20">
-        <v>1.041552140290004</v>
+        <v>1.025009513530908</v>
       </c>
       <c r="K20">
-        <v>1.047059562869139</v>
+        <v>1.027658135596857</v>
       </c>
       <c r="L20">
-        <v>1.047462549025483</v>
+        <v>1.027874861325497</v>
       </c>
       <c r="M20">
-        <v>1.057434602579888</v>
+        <v>1.035840534385847</v>
       </c>
       <c r="N20">
-        <v>1.01779958706462</v>
+        <v>1.012257171548056</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.034387045547323</v>
+        <v>0.9923416219973847</v>
       </c>
       <c r="D21">
-        <v>1.042866905454212</v>
+        <v>1.009751995862683</v>
       </c>
       <c r="E21">
-        <v>1.043271755205517</v>
+        <v>1.009994433446924</v>
       </c>
       <c r="F21">
-        <v>1.053204358289283</v>
+        <v>1.017737961525999</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.037452883719806</v>
+        <v>1.048467668389077</v>
       </c>
       <c r="J21">
-        <v>1.040984475866456</v>
+        <v>1.022163063526862</v>
       </c>
       <c r="K21">
-        <v>1.046421673752373</v>
+        <v>1.024550939426019</v>
       </c>
       <c r="L21">
-        <v>1.046825039309152</v>
+        <v>1.024788900267099</v>
       </c>
       <c r="M21">
-        <v>1.056721623685321</v>
+        <v>1.032390898885825</v>
       </c>
       <c r="N21">
-        <v>1.017611545345699</v>
+        <v>1.011313045270728</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.033780967655301</v>
+        <v>0.9891057353676834</v>
       </c>
       <c r="D22">
-        <v>1.04233580163724</v>
+        <v>1.007122712274529</v>
       </c>
       <c r="E22">
-        <v>1.04274101622227</v>
+        <v>1.007379907750465</v>
       </c>
       <c r="F22">
-        <v>1.052627425164462</v>
+        <v>1.014892907259872</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.037353714960701</v>
+        <v>1.047565200570143</v>
       </c>
       <c r="J22">
-        <v>1.040627271090938</v>
+        <v>1.020331649216399</v>
       </c>
       <c r="K22">
-        <v>1.046020599109267</v>
+        <v>1.022554375196223</v>
       </c>
       <c r="L22">
-        <v>1.046424269338211</v>
+        <v>1.022806571304001</v>
       </c>
       <c r="M22">
-        <v>1.056273407070078</v>
+        <v>1.030174995600901</v>
       </c>
       <c r="N22">
-        <v>1.017493205316469</v>
+        <v>1.010705634294602</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.03410222087124</v>
+        <v>0.9908279605558444</v>
       </c>
       <c r="D23">
-        <v>1.042617281822636</v>
+        <v>1.008521397692865</v>
       </c>
       <c r="E23">
-        <v>1.043022296691047</v>
+        <v>1.008770678223647</v>
       </c>
       <c r="F23">
-        <v>1.052933195075597</v>
+        <v>1.01640640692514</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.037406470240368</v>
+        <v>1.048046910622106</v>
       </c>
       <c r="J23">
-        <v>1.040816659294575</v>
+        <v>1.02130657271147</v>
       </c>
       <c r="K23">
-        <v>1.046233216670754</v>
+        <v>1.023616967681821</v>
       </c>
       <c r="L23">
-        <v>1.046636719119844</v>
+        <v>1.023861531898955</v>
       </c>
       <c r="M23">
-        <v>1.056511008794557</v>
+        <v>1.031354256335519</v>
       </c>
       <c r="N23">
-        <v>1.017555949944831</v>
+        <v>1.011028975012826</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.035367845868368</v>
+        <v>0.9974603868322981</v>
       </c>
       <c r="D24">
-        <v>1.043726940255872</v>
+        <v>1.013922570102415</v>
       </c>
       <c r="E24">
-        <v>1.044131308797606</v>
+        <v>1.014142683020092</v>
       </c>
       <c r="F24">
-        <v>1.054138595863341</v>
+        <v>1.02225026968732</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.037610076357137</v>
+        <v>1.049871254460081</v>
       </c>
       <c r="J24">
-        <v>1.041561652216357</v>
+        <v>1.025056548783507</v>
       </c>
       <c r="K24">
-        <v>1.047070256912062</v>
+        <v>1.027709522975259</v>
       </c>
       <c r="L24">
-        <v>1.047473237828889</v>
+        <v>1.027925907305756</v>
       </c>
       <c r="M24">
-        <v>1.05744655668591</v>
+        <v>1.035897596622272</v>
       </c>
       <c r="N24">
-        <v>1.017802737697009</v>
+        <v>1.012272773043048</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.03683829863701</v>
+        <v>1.004871438327429</v>
       </c>
       <c r="D25">
-        <v>1.04501766901809</v>
+        <v>1.019985951123638</v>
       </c>
       <c r="E25">
-        <v>1.04542157726353</v>
+        <v>1.020176126605656</v>
       </c>
       <c r="F25">
-        <v>1.055540664463545</v>
+        <v>1.028809359389043</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.037837852421024</v>
+        <v>1.051844729484373</v>
       </c>
       <c r="J25">
-        <v>1.042424859914474</v>
+        <v>1.029235964011695</v>
       </c>
       <c r="K25">
-        <v>1.048041508800775</v>
+        <v>1.03228173558018</v>
       </c>
       <c r="L25">
-        <v>1.048444172534656</v>
+        <v>1.032469104665671</v>
       </c>
       <c r="M25">
-        <v>1.058532419978219</v>
+        <v>1.040976322573353</v>
       </c>
       <c r="N25">
-        <v>1.018088623129696</v>
+        <v>1.013659131169737</v>
       </c>
     </row>
   </sheetData>
